--- a/转json/Tables/MagicSkill.xlsx
+++ b/转json/Tables/MagicSkill.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\PlayerSkill\转json\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\PlayerSkillF\转json\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF62190-52B4-4A52-9C29-783D8EA37F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DE2AB1-8C51-49F0-924E-7EFF4E92307D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>##var</t>
   </si>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>三分裂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>追踪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定点爆破</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -483,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL8"/>
+  <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J27:J28"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -637,6 +645,22 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/转json/Tables/MagicSkill.xlsx
+++ b/转json/Tables/MagicSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\PlayerSkillF\转json\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DE2AB1-8C51-49F0-924E-7EFF4E92307D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6781C0F1-9F5F-4652-B432-C8436003BA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="3150" windowWidth="27960" windowHeight="16170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>加强</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -94,11 +90,71 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>追踪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>定点爆破</t>
+    <t>自动追踪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁敌发射</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生存时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改弹体初始化地点，鼠标射线击中最近网格处</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击最近攻击过的敌人，或是范围内最近的敌人，否则不攻击并弹出提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹体x3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹体x2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹体威力倍数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹体大小倍数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不发射则在初始不移动，若没有其他检测移动行为，则永不移动直至销毁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹体飞行速度倍数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹体存在时间倍数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有检测范围内敌人并进行追击功能，若没有其他检测移动行为，且无目标，不动</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -502,6 +558,7 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="32.125" customWidth="1"/>
+    <col min="4" max="4" width="71" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
@@ -514,6 +571,9 @@
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -523,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2"/>
+      <c r="D2" s="3"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
@@ -567,9 +627,11 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3"/>
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
@@ -610,7 +672,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
@@ -618,7 +683,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -626,7 +694,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -634,7 +705,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
@@ -642,7 +716,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
@@ -652,13 +729,52 @@
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/转json/Tables/MagicSkill.xlsx
+++ b/转json/Tables/MagicSkill.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\PlayerSkillF\转json\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6781C0F1-9F5F-4652-B432-C8436003BA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7024E165-4F1C-4D90-B6A0-CE2ADCD3426E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="3150" windowWidth="27960" windowHeight="16170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="2355" windowWidth="27960" windowHeight="16170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -94,10 +95,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>锁敌发射</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>生存时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -155,6 +152,26 @@
   </si>
   <si>
     <t>拥有检测范围内敌人并进行追击功能，若没有其他检测移动行为，且无目标，不动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中造成治疗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中我方阵营</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不命中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁头</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -547,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL13"/>
+  <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -675,7 +692,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
@@ -686,7 +703,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -697,7 +714,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -708,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
@@ -719,7 +736,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
@@ -727,10 +744,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
@@ -738,10 +755,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
@@ -752,7 +769,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
@@ -760,10 +777,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
@@ -771,10 +788,32 @@
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
